--- a/Test_tracker.xlsx
+++ b/Test_tracker.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\mygitstudy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\mygitstudy\MyGitStudy101\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -397,7 +397,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -479,8 +479,12 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="B9" s="1">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6</v>
+      </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>

--- a/Test_tracker.xlsx
+++ b/Test_tracker.xlsx
@@ -24,9 +24,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>test</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
   </si>
 </sst>
 </file>
@@ -394,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -419,9 +434,7 @@
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B3" s="1">
-        <v>2</v>
-      </c>
+      <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -455,7 +468,9 @@
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1">
+        <v>7</v>
+      </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -465,7 +480,9 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="F7" s="1">
+        <v>8</v>
+      </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
@@ -524,7 +541,9 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="G13" s="1">
+        <v>9</v>
+      </c>
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
@@ -554,6 +573,23 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
